--- a/RPI/Test-Data/Hardware-2/voltageSensorsProcessed0.2Secs.xlsx
+++ b/RPI/Test-Data/Hardware-2/voltageSensorsProcessed0.2Secs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seb\Documents\GitHub\DataLogger\RPI\Test-Data\Hardware-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9741C94B-25ED-4A89-81C4-306E4D2EF6EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4F7FC1B0-315B-47C3-921A-215CA26C55DE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1495,42 +1495,940 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>voltage!$C$2:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Flow Meter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0A0 (mV)</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>voltage!$C$4:$C$297</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="294"/>
+                <c:pt idx="0">
+                  <c:v>577.39262062440798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>577.517624439222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>577.26761680959498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>577.26761680959498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>576.64259773552601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>578.64265877254502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>581.26773888363198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>578.14264351328995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>580.76772362437805</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>574.26752525406596</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>573.64250617999801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>582.39277321695602</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>576.89260536515303</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>591.26804406872702</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600.643330179754</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>614.01873836481798</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>675.14560380871001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>690.64607684560599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>738.77254554887497</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>693.39616077150697</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>782.89889217810605</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>783.523911252174</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>766.27338480788603</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>794.77425458540597</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>803.39951780754996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>805.52458265938196</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>761.39823603015202</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>768.023438215277</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>777.27372051148996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>778.52375865962699</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>832.40040284432496</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>826.27521591845402</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>807.52464369640097</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>672.77053132724996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>671.14548173467199</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>669.89544358653495</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>664.64528336436001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>665.77031769768303</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>663.14523758659595</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>795.39927365947403</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>706.52156132694404</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>704.77150791955296</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>702.89645069734797</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>680.89577929013899</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>672.14551225318098</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>674.52058473464103</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>677.64568010498294</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>672.64552751243605</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>675.77062288277796</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>656.89504684591202</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>650.51985229041395</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>653.64494766075597</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>652.01989806817801</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>655.01998962370601</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>650.89486373485499</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>646.144718771935</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>648.01977599413999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>643.39463484603402</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>642.64461195715205</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>642.64461195715205</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>645.26969206823901</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>644.144657734916</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>644.89468062379797</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>641.26956999420099</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>642.26960051271101</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>643.51963866084702</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>638.01947080904495</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>640.51954710531902</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>645.01968443861199</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>640.89455854975995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>646.51973021637605</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>646.144718771935</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>634.51936399426199</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>634.76937162388901</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>634.26935636463497</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>633.519333475753</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>634.26935636463497</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>636.76943266090802</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>635.76940214239903</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>631.89428388317504</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>634.26935636463497</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>636.64442884609502</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>636.01940977202605</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>636.76943266090802</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>635.01937925351695</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>636.26941740165398</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>635.01937925351695</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>636.39442121646698</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>632.89431440168403</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>632.14429151280206</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>631.39426862391997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>633.644337290566</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>632.76931058687001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>634.39436017944797</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>633.519333475753</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>633.01931821649805</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>625.76909695730399</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>631.76928006836101</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>629.89422284615603</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>632.26929532761596</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>629.01919614246003</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>627.89416180913702</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>640.64455092013304</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>647.64476454969895</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>645.01968443861199</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>645.64470351268005</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>643.76964629047495</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>641.14456617938697</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>639.01950132755496</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>636.64442884609502</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>643.89465010528795</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>643.39463484603402</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>642.14459669789699</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>649.14481032746301</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>655.77001251258798</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>654.89498580889301</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>651.39487899410994</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>650.64485610522695</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>650.14484084597302</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>651.89489425336399</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>648.01977599413999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>647.019745475631</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>644.64467299417095</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>657.89507736442101</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>648.14477980895401</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>647.64476454969895</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>668.64540543839803</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>661.14517654957695</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>655.895016327402</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>876.77675710318294</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1662.42573320719</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1522.0464491714199</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1487.29538865321</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1455.0444044312801</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1649.4253364665601</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1753.3035065767299</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1891.4327219458601</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1988.5606860560899</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2092.1888485366298</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2210.3174535355602</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2242.94344920194</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2274.4444105349799</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2287.4448072756099</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1921.5586413159499</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2248.9436323129898</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1880.8073976866899</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>60.001831110568503</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2131.8150578325699</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2016.18652912991</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1777.92925809503</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2247.0685750907901</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2087.9387188329702</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2264.4441053498899</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1518.54634235663</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>468.38929410687501</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1706.9270912808599</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1652.17542039246</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1597.9237647633199</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1528.9216589861701</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1426.79354228339</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1487.0453810235899</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1118.7841425824699</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1352.9162877285</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1396.2926114688501</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1427.29355754264</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1513.42118594927</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2128.9399700918598</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2120.0646992400798</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1889.8076723532799</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2226.31794183172</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2249.0686361278099</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1492.29554124576</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2184.0666524246899</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2175.44138920255</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2292.4449598681599</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1900.5580004272499</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>531.39121677297203</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>464.51417584765102</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>483.01474044007603</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>458.13898129215301</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>461.38908047730899</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>462.13910336619102</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>460.13904232917201</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>462.76412244026</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>461.38908047730899</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>461.889095736564</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>461.76409192174998</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>464.51417584765102</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>463.51414532914202</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>461.889095736564</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>461.51408429212302</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>461.889095736564</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>463.01413006988702</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>484.26477858821301</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>498.01519821771899</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>499.76525162511001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>471.38938566240398</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>494.26508377330799</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>480.63966795861597</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>464.01416058839601</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>524.64101077303303</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>467.63927121799298</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>477.63957640308797</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>477.51457258827401</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>455.138889736625</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>469.01431318094399</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>472.26441236609998</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>499.39024018066902</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>489.38993499557398</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>470.38935514389402</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>143.12936796166801</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>34.376049073763198</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>34.501052888576901</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>34.501052888576901</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>34.501052888576901</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>34.251045258949503</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>812.89980773339005</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>466.63924069948399</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>460.63905758842702</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>425.76299325540901</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>427.513046662801</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>485.51481673634999</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>475.26450392162798</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>430.63814203314303</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>430.88814966276999</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>410.13751640369799</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>400.76223029267197</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>379.63658558915898</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>384.51173436689299</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>388.886867885372</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>401.512253181554</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>392.13696707052799</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>358.13592944120597</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>350.760704367198</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>310.25946836756401</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>247.257545701467</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>220.63173314615301</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>205.131260109256</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>472.63942381054102</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>415.26267281105902</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>472.63942381054102</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>302.384228034302</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>175.75536362803999</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>98.002990813928605</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>281.38358714560297</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>323.134861293374</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>385.26175725577502</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>340.63539536729002</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>219.381694998016</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>33.001007110812701</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>33.626026184881098</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>33.626026184881098</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>33.376018555253701</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>609.39359721671099</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>463.76415295876899</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>441.51347392193298</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>429.63811151463301</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>454.51387066255597</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>444.26355784783402</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>394.51203955198798</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>414.76265755180498</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>399.13718070009401</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>333.13516647846899</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>217.75664540543801</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>327.76000244148003</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>319.50975066377703</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>281.63359477523102</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>323.25986510818802</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>325.00991851557899</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>532.51625110629595</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>519.515854365672</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>455.76390881069301</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>477.76458021790199</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>461.889095736564</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>464.264168218024</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1051.7820978423399</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>993.65532395397804</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>985.90508743552903</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>988.15515610217597</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>983.53001495406897</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>987.78014465773401</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>986.03009125034305</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>985.780083620715</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>979.02987762077703</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>978.77986999114898</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>939.27866451002501</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>984.03003021332404</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>982.52998443555998</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>981.40495010223697</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>977.77983947263999</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>977.65483565782597</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>986.90511795403904</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>978.02984710226701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BBF-483D-8CA0-CAB18593BCAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1566,10 +2464,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>voltage!$D$4:$D$90</c:f>
+              <c:f>voltage!$D$4:$D$297</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>740.64760277107996</c:v>
                 </c:pt>
@@ -1831,14 +2729,2490 @@
                 <c:pt idx="86">
                   <c:v>786.524002807702</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>775.14865565965704</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>772.39857173375594</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>755.64806054872201</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>754.27301858577198</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>747.647816400647</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>741.39762565996205</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>730.64729758598503</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>730.52229377117203</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>718.14691610461705</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>722.522049623096</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>717.27188940092105</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>712.14673299356002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>712.14673299356002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>707.27158421582601</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>705.02151554917998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>704.39649647511203</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>700.27137058625999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>699.14633625293698</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>687.89599291970501</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>682.39582506790305</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>677.39567247535604</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>667.77037873470204</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>656.39503158665696</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>648.14477980895401</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>636.76943266090802</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>621.14395580919802</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>605.01846369823295</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>595.51817377239297</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>594.26813562425605</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>590.01800592058999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>577.64262825403603</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>565.26725058748104</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>563.76720480971699</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>554.39191869869001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>549.391766106143</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>554.01690725424896</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>562.89217810602099</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>573.39249855036996</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>550.14178899502497</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>555.01693777275898</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>558.64204840235595</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>578.392651142918</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>578.64265877254502</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>595.76818140201999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>592.39307840205004</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>597.39323099459796</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>603.39341410565498</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>611.268654438917</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>615.89379558702296</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>625.76909695730399</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>628.26917325357795</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>640.269539475692</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>646.64473403118996</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>651.39487899410994</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>658.27008880886206</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>665.14529862361496</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>669.64543595690702</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>719.89696951200904</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>812.52479628894901</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>738.14752647480702</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>749.52287362285199</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>793.02420117801398</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>793.149204992828</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>824.27515488143501</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>841.15066988128297</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>845.525803399761</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>845.65080721457502</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>839.90063173314604</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>837.52555925168599</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>842.15070039979196</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>828.40028077028705</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>822.15009002960301</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>819.275002288888</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>811.89977721488003</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>807.52464369640097</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>796.77431562242498</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>791.149143955809</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>786.77401043733005</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>778.77376628925401</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>775.64867091891199</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>774.27362895596104</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>768.64845728934597</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>764.89834284493497</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>764.148319956053</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>757.398113956114</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>746.64778588213699</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>741.39762565996205</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>733.64738914151405</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>729.64726706747604</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>716.39686269722495</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>707.27158421582601</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>689.52104251228297</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>680.64577166051197</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>662.39521469771398</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>631.26926480910595</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>620.51893673512905</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>614.89376506851397</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>600.14331492049905</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>584.14282662434698</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>583.14279610583799</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>582.01776177251497</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>571.01742606891003</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>552.266853846858</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>552.01684621722995</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>549.76677755058404</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>551.76683858760305</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>552.89187292092595</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>555.01693777275898</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>557.26700643940501</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>572.26746421704695</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>564.89223914304</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>582.39277321695602</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>568.51734977263698</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>574.14252143925296</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>595.39316995757895</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>581.76775414288704</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>595.39316995757895</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>590.76802880947298</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>593.26810510574603</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>599.26828821680294</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>603.01840266121405</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>605.26847132785997</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>611.01864680928895</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>616.14380321664999</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>618.64387951292395</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>617.51884517960104</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>619.89391766106098</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>626.769127475814</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>627.89416180913702</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>629.64421521652798</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>645.01968443861199</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>637.76946317941804</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>639.26950895718198</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>644.144657734916</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>648.51979125339506</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>656.02002014221603</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>660.02014221625404</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>667.52037110507501</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>678.39570299386503</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>688.14600054933305</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>704.77150791955296</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>705.146519363994</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>714.27179784539305</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>727.52220221564301</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>735.52244636371904</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>748.77285073397002</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>760.64821314127005</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>772.14856410412904</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>778.14874721518595</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>786.524002807702</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>798.39936521500294</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>804.14954069643204</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>821.52507095553403</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>836.90054017761702</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>833.40043336283395</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>832.775414288766</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>832.52540665913796</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>827.40025025177704</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>825.15018158513101</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>821.27506332590701</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>817.14993743705497</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>807.64964751121499</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>808.27466658528397</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>804.39954832605895</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>800.64943388164897</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>795.14926602984701</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>788.39906002990801</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>786.77401043733005</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>778.27375102999895</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>775.52366710409797</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>765.39835810419004</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>762.02325510421997</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>758.89815973387795</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>756.52308725241801</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>753.52299569689001</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>751.77294228949802</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>745.14774010437304</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>744.64772484511798</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>739.39756462294304</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>734.39741203039603</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>732.64735862300404</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>729.52226325266201</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>720.52198858607699</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>715.89684743797102</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>717.14688558610703</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>706.02154606769</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>698.52131717886903</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>692.521134067812</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>686.14593951231404</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>627.14413892025505</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>696.64625995666302</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>658.14508499404894</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>649.26981414227703</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>590.76802880947298</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>611.14365062410297</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>613.64372692037705</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>598.89327677236201</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>580.39271217993701</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>593.893124179815</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>580.39271217993701</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>580.39271217993701</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>576.51759392071199</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>562.26715903195202</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>557.89202551347296</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>572.76747947630201</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>539.89147618030302</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>557.64201788384605</c:v>
+                </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8BBF-483D-8CA0-CAB18593BCAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>voltage!$E$2:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Ground</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0A2 (mV)</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>voltage!$E$4:$E$297</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="294"/>
+                <c:pt idx="0">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.125003814813684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-0.500015259254738</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-0.125003814813684</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-0.250007629627369</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-0.375011444441053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8BBF-483D-8CA0-CAB18593BCAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>voltage!$F$2:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4-20  0-400mBar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0A3 (mV)</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>voltage!$F$4:$F$297</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="294"/>
+                <c:pt idx="0">
+                  <c:v>399.13718070009401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>398.26215399639801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>398.76216925565302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>399.01217688527998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398.26215399639801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>398.88717307046699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>398.76216925565302</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>398.88717307046699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>398.13715018158501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>398.01214636677099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>398.26215399639801</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>397.76213873714403</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>398.26215399639801</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>398.13715018158501</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>398.13715018158501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>398.38715781121198</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>398.88717307046699</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>398.13715018158501</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>399.01217688527998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>398.01214636677099</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>398.76216925565302</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>397.63713492233001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>398.88717307046699</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>398.38715781121198</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>398.88717307046699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>398.76216925565302</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>398.26215399639801</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>398.76216925565302</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>399.26218451490797</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>398.88717307046699</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>398.88717307046699</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>398.26215399639801</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>398.76216925565302</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>399.01217688527998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>399.01217688527998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>399.26218451490797</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>399.13718070009401</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>399.13718070009401</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>399.38718832972199</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>399.01217688527998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>398.13715018158501</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>398.76216925565302</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>399.01217688527998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>399.13718070009401</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>399.01217688527998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>398.76216925565302</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>398.38715781121198</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>398.38715781121198</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>397.88714255195703</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>398.76216925565302</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>398.76216925565302</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>398.13715018158501</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>398.38715781121198</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>399.01217688527998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>398.26215399639801</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>398.01214636677099</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>398.01214636677099</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>398.01214636677099</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>397.76213873714403</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>398.13715018158501</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>398.13715018158501</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>398.38715781121198</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>397.88714255195703</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>398.13715018158501</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>398.01214636677099</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>398.38715781121198</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>398.13715018158501</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>398.38715781121198</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>397.88714255195703</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>398.26215399639801</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>397.88714255195703</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>398.26215399639801</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>398.38715781121198</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>397.76213873714403</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>397.88714255195703</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>398.01214636677099</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>397.76213873714403</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>398.26215399639801</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>398.38715781121198</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>398.26215399639801</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>398.38715781121198</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>398.38715781121198</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>399.13718070009401</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>398.01214636677099</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>399.13718070009401</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>397.76213873714403</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>394.88705099642902</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>399.51219214453499</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>400.38721884823099</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>399.63719595934901</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>399.26218451490797</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>399.26218451490797</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>397.88714255195703</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>399.76219977416298</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>399.26218451490797</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>397.88714255195703</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>397.01211584826098</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>394.88705099642902</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>396.01208532975198</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>397.51213110751598</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>398.88717307046699</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>398.01214636677099</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>397.01211584826098</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>397.137119663075</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>398.13715018158501</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>396.51210058900699</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>396.76210821863401</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>397.76213873714403</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>399.38718832972199</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>397.88714255195703</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>397.137119663075</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>398.76216925565302</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>397.76213873714403</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>396.76210821863401</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>396.76210821863401</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>397.76213873714403</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>394.88705099642902</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>396.76210821863401</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>396.01208532975198</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>397.137119663075</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>398.38715781121198</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>397.88714255195703</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>398.01214636677099</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>397.88714255195703</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>397.63713492233001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>396.38709677419303</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>396.137089144566</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>396.262092959379</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>396.88711203344798</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>396.38709677419303</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>396.262092959379</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>395.637073885311</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>397.38712729270298</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>395.637073885311</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>396.63710440381999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>395.51207007049697</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>395.51207007049697</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>397.01211584826098</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>395.637073885311</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>396.01208532975198</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>394.63704336680098</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>396.76210821863401</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>397.63713492233001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>398.38715781121198</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>397.88714255195703</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>397.26212347788902</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>397.76213873714403</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>397.26212347788902</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>397.88714255195703</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>397.26212347788902</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>396.76210821863401</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>396.76210821863401</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>397.01211584826098</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>398.01214636677099</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>397.76213873714403</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>396.88711203344798</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>397.137119663075</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>399.01217688527998</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>398.637165440839</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>398.88717307046699</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>398.76216925565302</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>398.26215399639801</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>398.01214636677099</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>398.38715781121198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>398.01214636677099</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>397.88714255195703</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>398.26215399639801</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>398.38715781121198</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>399.38718832972199</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>395.76207770012502</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>395.13705862605599</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>396.63710440381999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>397.88714255195703</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>394.01202429273297</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>399.51219214453499</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>393.76201666310601</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>393.63701284829199</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>396.137089144566</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>395.38706625568398</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>395.26206244087001</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>395.76207770012502</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>393.88702047791901</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>395.26206244087001</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>394.26203192235999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>393.88702047791901</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>393.76201666310601</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>392.01196325571402</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>393.76201666310601</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>394.51203955198798</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>393.51200903347802</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>397.01211584826098</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>394.38703573717402</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>394.26203192235999</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>393.76201666310601</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>394.26203192235999</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>393.51200903347802</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>394.88705099642902</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>394.137028107547</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>392.88698995941002</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>392.51197851496897</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>392.636982329783</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>393.01199377422398</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>393.38700521866502</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>393.88702047791901</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>392.51197851496897</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>391.63695181127298</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>392.13696707052799</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>391.761955626087</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>392.01196325571402</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>391.38694418164602</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>391.761955626087</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>392.01196325571402</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>392.636982329783</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>392.01196325571402</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>391.63695181127298</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>391.761955626087</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>398.512161626026</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>393.13699758903698</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>392.636982329783</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>392.38697470015501</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>391.8869594409</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>392.13696707052799</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>392.636982329783</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>391.26194036683199</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>392.01196325571402</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>396.76210821863401</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>393.76201666310601</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>397.01211584826098</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>394.762047181615</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>395.38706625568398</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>395.51207007049697</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>394.762047181615</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>396.63710440381999</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>393.01199377422398</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>392.26197088534099</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>394.01202429273297</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>393.76201666310601</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>393.38700521866502</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>393.51200903347802</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>394.762047181615</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>396.88711203344798</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>396.38709677419303</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>396.137089144566</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>396.38709677419303</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>396.137089144566</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>396.51210058900699</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>396.262092959379</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>396.51210058900699</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>396.76210821863401</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>395.76207770012502</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>396.51210058900699</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>396.38709677419303</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>396.262092959379</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>396.262092959379</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>396.262092959379</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>396.137089144566</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>396.262092959379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8BBF-483D-8CA0-CAB18593BCAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1857,972 +5231,12 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>voltage!$C$2:$C$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Flow Meter</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0A0 (mV)</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>voltage!$C$4:$C$90</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="87"/>
-                      <c:pt idx="0">
-                        <c:v>577.39262062440798</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>577.517624439222</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>577.26761680959498</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>577.26761680959498</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>576.64259773552601</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>578.64265877254502</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>581.26773888363198</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>578.14264351328995</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>580.76772362437805</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>574.26752525406596</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>573.64250617999801</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>582.39277321695602</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>576.89260536515303</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>591.26804406872702</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>600.643330179754</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>614.01873836481798</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>675.14560380871001</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>690.64607684560599</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>738.77254554887497</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>693.39616077150697</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>782.89889217810605</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>783.523911252174</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>766.27338480788603</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>794.77425458540597</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>803.39951780754996</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>805.52458265938196</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>761.39823603015202</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>768.023438215277</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>777.27372051148996</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>778.52375865962699</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>832.40040284432496</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>826.27521591845402</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>807.52464369640097</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>672.77053132724996</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>671.14548173467199</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>669.89544358653495</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>664.64528336436001</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>665.77031769768303</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>663.14523758659595</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>795.39927365947403</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>706.52156132694404</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>704.77150791955296</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>702.89645069734797</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>680.89577929013899</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>672.14551225318098</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>674.52058473464103</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>677.64568010498294</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>672.64552751243605</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>675.77062288277796</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>656.89504684591202</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>650.51985229041395</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>653.64494766075597</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>652.01989806817801</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>655.01998962370601</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>650.89486373485499</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>646.144718771935</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>648.01977599413999</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>643.39463484603402</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>642.64461195715205</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>642.64461195715205</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>645.26969206823901</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>644.144657734916</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>644.89468062379797</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>641.26956999420099</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>642.26960051271101</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>643.51963866084702</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>638.01947080904495</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>640.51954710531902</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>645.01968443861199</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>640.89455854975995</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>646.51973021637605</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>646.144718771935</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>634.51936399426199</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>634.76937162388901</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>634.26935636463497</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>633.519333475753</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>634.26935636463497</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>636.76943266090802</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>635.76940214239903</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>631.89428388317504</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>634.26935636463497</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>636.64442884609502</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>636.01940977202605</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>636.76943266090802</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>635.01937925351695</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>636.26941740165398</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>635.01937925351695</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-8BBF-483D-8CA0-CAB18593BCAB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>voltage!$E$2:$E$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Ground</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0A2 (mV)</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>voltage!$E$4:$E$90</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="87"/>
-                      <c:pt idx="0">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>-0.125003814813684</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>-0.250007629627369</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>-0.250007629627369</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>-0.500015259254738</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>-0.250007629627369</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>-0.500015259254738</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>-0.250007629627369</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>-0.250007629627369</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>-0.500015259254738</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>-0.500015259254738</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>-0.500015259254738</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>-0.250007629627369</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>-0.250007629627369</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>-0.250007629627369</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>-0.250007629627369</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>-0.250007629627369</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>-0.250007629627369</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>-0.250007629627369</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>-0.250007629627369</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>-0.500015259254738</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>-0.500015259254738</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>-0.250007629627369</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>-0.250007629627369</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>-0.500015259254738</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>-0.250007629627369</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>-0.375011444441053</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-8BBF-483D-8CA0-CAB18593BCAB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>voltage!$F$2:$F$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>4-20  0-400mBar</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0A3 (mV)</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>voltage!$F$4:$F$90</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="87"/>
-                      <c:pt idx="0">
-                        <c:v>399.13718070009401</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>398.637165440839</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>398.26215399639801</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>398.512161626026</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>398.512161626026</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>398.76216925565302</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>398.637165440839</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>399.01217688527998</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>398.26215399639801</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>398.88717307046699</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>398.512161626026</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>398.637165440839</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>398.512161626026</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>398.76216925565302</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>398.88717307046699</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>398.512161626026</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>398.13715018158501</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>398.01214636677099</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>398.26215399639801</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>398.512161626026</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>398.512161626026</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>397.76213873714403</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>398.26215399639801</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>398.13715018158501</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>398.13715018158501</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>398.637165440839</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>398.38715781121198</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>398.88717307046699</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>398.637165440839</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>398.13715018158501</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>399.01217688527998</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>398.01214636677099</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>398.512161626026</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>398.76216925565302</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>397.63713492233001</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>398.88717307046699</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>398.637165440839</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>398.38715781121198</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>398.512161626026</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>398.88717307046699</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>398.76216925565302</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>398.512161626026</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>398.26215399639801</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>398.76216925565302</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>398.637165440839</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>399.26218451490797</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>398.88717307046699</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>398.512161626026</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>398.637165440839</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>398.88717307046699</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>398.26215399639801</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>398.76216925565302</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>398.637165440839</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>399.01217688527998</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>399.01217688527998</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>399.26218451490797</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>399.13718070009401</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>399.13718070009401</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>399.38718832972199</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>399.01217688527998</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>398.637165440839</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>398.637165440839</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>398.13715018158501</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>398.76216925565302</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>399.01217688527998</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>399.13718070009401</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>399.01217688527998</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>398.512161626026</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>398.76216925565302</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>398.38715781121198</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>398.38715781121198</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>398.512161626026</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>398.512161626026</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>397.88714255195703</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>398.76216925565302</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>398.512161626026</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>398.76216925565302</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>398.637165440839</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>398.13715018158501</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>398.38715781121198</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>399.01217688527998</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>398.637165440839</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>398.26215399639801</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>398.01214636677099</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>398.512161626026</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>398.512161626026</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>398.01214636677099</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-8BBF-483D-8CA0-CAB18593BCAB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>voltage!$G$2:$G$3</c15:sqref>
                         </c15:formulaRef>
@@ -2854,7 +5268,7 @@
                 <c:val>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>voltage!$G$4:$G$297</c15:sqref>
                         </c15:formulaRef>
@@ -4813,8 +7227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
